--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H2">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>15.833140264714</v>
+        <v>27.25385279166611</v>
       </c>
       <c r="R2">
-        <v>142.498262382426</v>
+        <v>245.284675124995</v>
       </c>
       <c r="S2">
-        <v>0.02479649385654201</v>
+        <v>0.03591600797417489</v>
       </c>
       <c r="T2">
-        <v>0.02479649385654201</v>
+        <v>0.03591600797417488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H3">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>42.60177548750533</v>
+        <v>55.51705984393555</v>
       </c>
       <c r="R3">
-        <v>383.415979387548</v>
+        <v>499.6535385954199</v>
       </c>
       <c r="S3">
-        <v>0.06671921340253405</v>
+        <v>0.07316217561236917</v>
       </c>
       <c r="T3">
-        <v>0.06671921340253405</v>
+        <v>0.07316217561236915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H4">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>28.70799582012767</v>
+        <v>38.44312293502388</v>
       </c>
       <c r="R4">
-        <v>258.371962381149</v>
+        <v>345.9881064152149</v>
       </c>
       <c r="S4">
-        <v>0.04495997825358038</v>
+        <v>0.05066158977378461</v>
       </c>
       <c r="T4">
-        <v>0.04495997825358038</v>
+        <v>0.05066158977378461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H5">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>7.841637880773666</v>
+        <v>9.315150872243331</v>
       </c>
       <c r="R5">
-        <v>70.574740926963</v>
+        <v>83.83635785018998</v>
       </c>
       <c r="S5">
-        <v>0.01228089452154826</v>
+        <v>0.01227580685804683</v>
       </c>
       <c r="T5">
-        <v>0.01228089452154826</v>
+        <v>0.01227580685804683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.368332</v>
       </c>
       <c r="I6">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J6">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>48.09871489049867</v>
+        <v>63.53244378690712</v>
       </c>
       <c r="R6">
-        <v>432.8884340144881</v>
+        <v>571.7919940821641</v>
       </c>
       <c r="S6">
-        <v>0.07532804411187093</v>
+        <v>0.08372510760633188</v>
       </c>
       <c r="T6">
-        <v>0.07532804411187094</v>
+        <v>0.08372510760633188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.368332</v>
       </c>
       <c r="I7">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J7">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
-        <v>129.4178298646915</v>
+        <v>129.4178298646916</v>
       </c>
       <c r="R7">
         <v>1164.760468782224</v>
       </c>
       <c r="S7">
-        <v>0.2026830034670188</v>
+        <v>0.1705509986038386</v>
       </c>
       <c r="T7">
-        <v>0.2026830034670188</v>
+        <v>0.1705509986038386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.368332</v>
       </c>
       <c r="I8">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J8">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>87.21060275751243</v>
+        <v>89.61615686166088</v>
       </c>
       <c r="R8">
-        <v>784.895424817612</v>
+        <v>806.545411754948</v>
       </c>
       <c r="S8">
-        <v>0.1365816975879008</v>
+        <v>0.1180990676460447</v>
       </c>
       <c r="T8">
-        <v>0.1365816975879008</v>
+        <v>0.1180990676460447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.368332</v>
       </c>
       <c r="I9">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J9">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>23.82172445869378</v>
+        <v>21.71488573308533</v>
       </c>
       <c r="R9">
-        <v>214.395520128244</v>
+        <v>195.433971597768</v>
       </c>
       <c r="S9">
-        <v>0.03730752297500136</v>
+        <v>0.0286165781810591</v>
       </c>
       <c r="T9">
-        <v>0.03730752297500137</v>
+        <v>0.02861657818105911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H10">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>39.39198791405001</v>
+        <v>65.63308274550678</v>
       </c>
       <c r="R10">
-        <v>354.5278912264501</v>
+        <v>590.697744709561</v>
       </c>
       <c r="S10">
-        <v>0.06169232192584015</v>
+        <v>0.0864933975125208</v>
       </c>
       <c r="T10">
-        <v>0.06169232192584016</v>
+        <v>0.0864933975125208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H11">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>105.9908898085667</v>
+        <v>133.6969055486529</v>
       </c>
       <c r="R11">
-        <v>953.9180082770998</v>
+        <v>1203.272149937876</v>
       </c>
       <c r="S11">
-        <v>0.1659937576530412</v>
+        <v>0.1761901028274532</v>
       </c>
       <c r="T11">
-        <v>0.1659937576530412</v>
+        <v>0.1761901028274531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H12">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>71.42392510115833</v>
+        <v>92.57922862787521</v>
       </c>
       <c r="R12">
-        <v>642.815325910425</v>
+        <v>833.213057650877</v>
       </c>
       <c r="S12">
-        <v>0.1118579694470344</v>
+        <v>0.1220038993774302</v>
       </c>
       <c r="T12">
-        <v>0.1118579694470344</v>
+        <v>0.1220038993774301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H13">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>19.50956660910833</v>
+        <v>22.43286747963133</v>
       </c>
       <c r="R13">
-        <v>175.586099481975</v>
+        <v>201.895807316682</v>
       </c>
       <c r="S13">
-        <v>0.03055419458669782</v>
+        <v>0.02956275772974088</v>
       </c>
       <c r="T13">
-        <v>0.03055419458669783</v>
+        <v>0.02956275772974088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H14">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>3.112727743762</v>
+        <v>2.018901423902667</v>
       </c>
       <c r="R14">
-        <v>28.014549693858</v>
+        <v>18.170112815124</v>
       </c>
       <c r="S14">
-        <v>0.004874884772371877</v>
+        <v>0.002660573541445639</v>
       </c>
       <c r="T14">
-        <v>0.004874884772371878</v>
+        <v>0.002660573541445639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H15">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>8.375327084609332</v>
+        <v>4.112573441509333</v>
       </c>
       <c r="R15">
-        <v>75.37794376148399</v>
+        <v>37.013160973584</v>
       </c>
       <c r="S15">
-        <v>0.01311671235951099</v>
+        <v>0.005419682187642699</v>
       </c>
       <c r="T15">
-        <v>0.01311671235951099</v>
+        <v>0.005419682187642699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H16">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>5.643869350179666</v>
+        <v>2.847776284185333</v>
       </c>
       <c r="R16">
-        <v>50.794824151617</v>
+        <v>25.629986557668</v>
       </c>
       <c r="S16">
-        <v>0.008838939675204334</v>
+        <v>0.003752891619152751</v>
       </c>
       <c r="T16">
-        <v>0.008838939675204336</v>
+        <v>0.003752891619152751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H17">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>1.541632511297667</v>
+        <v>0.690044505032</v>
       </c>
       <c r="R17">
-        <v>13.874692601679</v>
+        <v>6.210400545288</v>
       </c>
       <c r="S17">
-        <v>0.002414371404302627</v>
+        <v>0.00090936294896417</v>
       </c>
       <c r="T17">
-        <v>0.002414371404302628</v>
+        <v>0.0009093629489641701</v>
       </c>
     </row>
   </sheetData>
